--- a/day06/turbidity_data.xlsx
+++ b/day06/turbidity_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\python_course_sol\day06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040A75E3-4B49-4016-853B-4C327EF036FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07953D2A-1A50-494B-B292-D9B1D2E95A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,10 +41,10 @@
     <t>time_hr</t>
   </si>
   <si>
-    <t>dilution_factor</t>
+    <t>raw_turbidity_OD600</t>
   </si>
   <si>
-    <t>raw_turbidity_OD600</t>
+    <t>dilution_factor</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -415,10 +415,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
